--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="529">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1185,12 +1185,18 @@
     <t>8</t>
   </si>
   <si>
-    <t>0,20-23,51-54</t>
-  </si>
-  <si>
     <t>10,48,86</t>
   </si>
   <si>
+    <t>0,20-23,41-44</t>
+  </si>
+  <si>
+    <t>10,48,78</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1545,6 +1551,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium i7 Sample Index Plate (96 rxn); PN 220103</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000380</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
   </si>
   <si>
@@ -1731,6 +1743,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000381</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
   </si>
   <si>
@@ -1935,7 +1953,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-19T09:51:12-07:00</t>
+    <t>2024-05-28T13:59:52-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2156,97 +2174,97 @@
         <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2">
@@ -2254,7 +2272,7 @@
         <v>36</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -2289,7 +2307,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$7</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -2352,7 +2370,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2362,7 +2380,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$22</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2390,10 +2408,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -2401,15 +2419,15 @@
         <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2427,12 +2445,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3">
@@ -2442,22 +2460,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2485,7 +2503,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2503,10 +2521,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -2514,15 +2532,15 @@
         <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2540,7 +2558,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
@@ -2555,12 +2573,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2578,42 +2596,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2631,18 +2649,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2660,18 +2678,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2689,18 +2707,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2718,18 +2736,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3032,18 +3050,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3061,218 +3079,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3282,7 +3300,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3290,10 +3308,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
@@ -3301,111 +3319,119 @@
         <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>414</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3438,7 +3464,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3446,178 +3472,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -3654,7 +3688,7 @@
         <v>267</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
@@ -3667,26 +3701,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8">
@@ -3699,10 +3733,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3731,15 +3765,15 @@
         <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
     </row>
     <row r="4">
@@ -3752,10 +3786,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6">
@@ -3776,90 +3810,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -3877,74 +3911,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -3968,16 +4002,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="2">
@@ -3985,13 +4019,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4833,7 +4867,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4874,6 +4908,16 @@
         <v>271</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="533">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -435,6 +435,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -531,6 +537,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -1953,7 +1965,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:52-07:00</t>
+    <t>2024-06-05T17:28:09-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2141,144 +2153,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="35">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$12</formula1>
@@ -2370,7 +2382,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2380,7 +2392,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2389,7 +2401,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2408,26 +2420,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2445,37 +2457,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2493,17 +2505,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2521,26 +2533,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2558,27 +2570,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2596,42 +2608,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2649,18 +2661,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2678,18 +2690,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2707,18 +2719,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2736,18 +2748,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2757,7 +2769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3033,6 +3045,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3050,18 +3078,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3079,218 +3107,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3328,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3308,130 +3336,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>403</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3449,12 +3485,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3464,7 +3500,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3472,186 +3508,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>438</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>439</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -3669,74 +3713,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3754,146 +3798,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3947,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3911,74 +3955,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>516</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>517</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>522</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4002,30 +4054,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -4043,98 +4095,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4152,12 +4204,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4175,178 +4227,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4364,410 +4416,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4785,42 +4837,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4838,26 +4890,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4875,47 +4927,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="539">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -624,22 +624,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -666,27 +696,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -735,7 +753,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -843,6 +861,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1185,16 +1209,19 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
     <t>0,38,76</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>10,48,78</t>
   </si>
   <si>
     <t>10,48,86</t>
@@ -1203,12 +1230,6 @@
     <t>0,20-23,41-44</t>
   </si>
   <si>
-    <t>10,48,78</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1218,9 +1239,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>Read 2 (R2)</t>
   </si>
   <si>
@@ -1230,24 +1248,24 @@
     <t>barcode_size</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
     <t>8,6</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
     <t>14-17,14,14</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -1257,42 +1275,42 @@
     <t>umi_size</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>assay_input_entity</t>
   </si>
   <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
+  </si>
+  <si>
+    <t>tissue (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
+  </si>
+  <si>
     <t>single nucleus</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
   </si>
   <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
-  </si>
-  <si>
-    <t>tissue (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
-  </si>
-  <si>
     <t>area of interest</t>
   </si>
   <si>
@@ -1308,18 +1326,18 @@
     <t>amount_of_input_analyte_unit</t>
   </si>
   <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
     <t>ng</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000024</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>library_adapter_sequence</t>
   </si>
   <si>
@@ -1965,7 +1983,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-06-05T17:28:09-07:00</t>
+    <t>2024-08-03T11:48:01-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2156,127 +2174,127 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
@@ -2284,7 +2302,7 @@
         <v>38</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +2311,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2302,7 +2320,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2420,26 +2438,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2457,37 +2475,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>290</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2505,17 +2523,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2533,26 +2551,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2570,27 +2588,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>296</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2608,42 +2626,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2661,18 +2679,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2690,10 +2708,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -2719,10 +2737,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -2748,18 +2766,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3078,18 +3096,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3107,218 +3125,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3336,138 +3354,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -3485,12 +3503,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3508,194 +3526,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -3713,74 +3731,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -3798,146 +3816,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -3955,82 +3973,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4054,16 +4072,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="2">
@@ -4071,13 +4089,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4105,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4187,6 +4205,30 @@
       </c>
       <c r="B12" t="s" s="0">
         <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4204,12 +4246,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4227,178 +4269,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4408,7 +4450,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4416,410 +4458,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4837,42 +4887,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4890,26 +4940,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -4927,47 +4977,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>277</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="555">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -513,6 +513,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -537,6 +543,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -612,18 +624,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -636,13 +648,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -678,24 +696,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -798,6 +816,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1440,6 +1464,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -1452,6 +1482,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000398</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
   </si>
   <si>
@@ -1488,6 +1524,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -1512,24 +1554,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1665,22 +1707,52 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (300 Cycle); PN 20104706</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000392</t>
   </si>
   <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
@@ -1725,24 +1797,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
   </si>
   <si>
@@ -1767,12 +1827,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
   </si>
   <si>
@@ -1785,12 +1839,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1827,12 +1875,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1935,6 +1977,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
   </si>
   <si>
@@ -1983,7 +2031,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:48:01-07:00</t>
+    <t>2025-01-08T12:48:10-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2171,130 +2219,130 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>476</v>
+        <v>492</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
@@ -2302,22 +2350,22 @@
         <v>38</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="35">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -2397,7 +2445,7 @@
       <formula1>'library_layout'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2410,7 +2458,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2419,7 +2467,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2438,26 +2486,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2475,37 +2523,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2523,17 +2571,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2551,26 +2599,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2588,27 +2636,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2626,42 +2674,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2679,18 +2727,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2708,18 +2756,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2737,18 +2785,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2766,18 +2814,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -2787,7 +2835,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3079,6 +3127,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3096,18 +3160,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3181,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,218 +3189,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3354,138 +3442,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>397</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>403</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>407</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>409</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>411</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>412</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>413</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>415</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>417</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>418</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>419</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>421</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>425</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3503,12 +3591,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +3606,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3526,194 +3614,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>431</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>433</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>439</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>441</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>443</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>444</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>447</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>383</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>384</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>448</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>450</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>456</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>457</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>461</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>463</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>465</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>467</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>469</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>471</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>473</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>475</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3731,74 +3827,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>481</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>485</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>487</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3816,146 +3912,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>490</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>492</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>494</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>498</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>500</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>504</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>506</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>508</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>510</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>512</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>514</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4061,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3973,82 +4069,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>517</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>519</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>378</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>521</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>383</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>384</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>526</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>527</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>529</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4072,16 +4176,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>532</v>
+        <v>548</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>533</v>
+        <v>549</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>537</v>
+        <v>553</v>
       </c>
     </row>
     <row r="2">
@@ -4089,13 +4193,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>534</v>
+        <v>550</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>536</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>538</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4105,7 +4209,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4113,122 +4217,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4246,12 +4358,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4261,7 +4373,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4269,178 +4381,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4458,418 +4578,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -4887,42 +5007,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4940,26 +5060,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4977,47 +5097,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -68,11 +68,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -121,8 +121,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="597">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -459,10 +459,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -561,6 +561,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -615,6 +621,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -726,40 +744,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -768,12 +852,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -786,18 +864,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -822,48 +888,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -915,6 +951,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -933,12 +975,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -951,12 +1011,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -969,12 +1041,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -999,6 +1089,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -1041,6 +1137,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1119,6 +1221,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1161,6 +1269,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1470,6 +1584,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
   </si>
   <si>
+    <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000432</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -1743,6 +1863,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
+    <t>Element Biosciences; AVITI 2x75 Sequencing Kit Cloudbreak FS High Output (184 Cycles); PN 860-00015</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000406</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
@@ -2031,7 +2157,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:48:10-08:00</t>
+    <t>2025-04-24T10:53:23-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2219,130 +2345,130 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>322</v>
+        <v>360</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>323</v>
+        <v>361</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>338</v>
+        <v>376</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>409</v>
+        <v>449</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>492</v>
+        <v>534</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>493</v>
+        <v>535</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>494</v>
+        <v>536</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>495</v>
+        <v>537</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>502</v>
+        <v>544</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>546</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2">
@@ -2350,13 +2476,13 @@
         <v>38</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>547</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="35">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2365,10 +2491,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2445,7 +2571,7 @@
       <formula1>'library_layout'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2458,7 +2584,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2486,26 +2612,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2523,37 +2649,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2571,17 +2697,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2599,26 +2725,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2636,27 +2762,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>310</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2674,42 +2800,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2727,18 +2853,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2756,18 +2882,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2785,18 +2911,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2814,18 +2940,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +2961,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3143,6 +3269,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3160,18 +3310,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3331,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3189,242 +3339,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>358</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>361</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>362</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>363</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>364</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>366</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>368</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>370</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>372</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>374</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>375</v>
+        <v>413</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>376</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>378</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>380</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>381</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>382</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>383</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>384</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>385</v>
+        <v>423</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>386</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>388</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>389</v>
+        <v>427</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>390</v>
+        <v>428</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>391</v>
+        <v>429</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>392</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>393</v>
+        <v>431</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>394</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>396</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>398</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>400</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>402</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>404</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>406</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>408</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>447</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -3442,138 +3600,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>450</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>412</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>413</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>414</v>
+        <v>454</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>415</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>416</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>417</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>419</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>420</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>421</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>423</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>424</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>425</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>427</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>429</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>431</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>433</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>435</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>437</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>439</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3591,12 +3749,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3764,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,202 +3772,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>485</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>449</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>451</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>453</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>455</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>457</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>459</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>461</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>463</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>465</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>467</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>469</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>471</v>
+        <v>511</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>395</v>
+        <v>512</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>396</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>472</v>
+        <v>435</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>473</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>474</v>
+        <v>514</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>475</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>476</v>
+        <v>516</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>477</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>478</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>479</v>
+        <v>519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>481</v>
+        <v>521</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>482</v>
+        <v>522</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>483</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>484</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>485</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>486</v>
+        <v>526</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>487</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>488</v>
+        <v>528</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>489</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>490</v>
+        <v>530</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>491</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>532</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -3827,74 +3993,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>496</v>
+        <v>538</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>497</v>
+        <v>539</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>540</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>499</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>501</v>
+        <v>543</v>
       </c>
     </row>
   </sheetData>
@@ -3912,146 +4078,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>503</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>504</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>505</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>506</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>507</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>508</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>509</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>510</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>512</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>513</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>514</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>516</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>518</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>519</v>
+        <v>561</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>520</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>522</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>523</v>
+        <v>565</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>524</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>525</v>
+        <v>567</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>526</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>527</v>
+        <v>569</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>528</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -4069,90 +4235,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>530</v>
+        <v>572</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>531</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>533</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>391</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>392</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>535</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>537</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>539</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>541</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>395</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>396</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>543</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>545</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -4176,16 +4342,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>553</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2">
@@ -4193,13 +4359,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>554</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -4217,130 +4383,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4358,12 +4524,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4373,7 +4539,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4381,186 +4547,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4760,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4578,418 +4768,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5007,42 +5309,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5060,26 +5362,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5097,47 +5399,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>288</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="601">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1113,6 +1113,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1182,7 +1194,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -2157,7 +2169,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:53:23-07:00</t>
+    <t>2025-05-12T10:18:02-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2357,118 +2369,118 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="2">
@@ -2476,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -2494,7 +2506,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2612,10 +2624,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2628,10 +2640,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2649,32 +2661,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7">
@@ -2697,12 +2709,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
@@ -2725,10 +2737,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2741,10 +2753,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2762,22 +2774,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
@@ -2800,42 +2812,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2853,18 +2865,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2882,18 +2894,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2911,18 +2923,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -2940,18 +2952,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3310,18 +3322,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3339,250 +3351,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -3600,10 +3612,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
@@ -3616,122 +3628,122 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3772,210 +3784,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4025,18 +4037,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="7">
@@ -4057,10 +4069,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4078,10 +4090,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -4094,10 +4106,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
@@ -4110,10 +4122,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6">
@@ -4126,98 +4138,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4235,90 +4247,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4342,16 +4354,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2">
@@ -4359,13 +4371,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4760,7 +4772,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5216,26 +5228,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -5292,6 +5304,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5309,42 +5337,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5362,26 +5390,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5399,42 +5427,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -47,222 +47,234 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Positions in the read at which the cell or capture spot barcodes
-start. Cell and capture spot barcodes are, for example, 3 x 8 bp sequences that
-are spaced by constant sequences (the offsets). First barcode at position 0,
-then 38, then 76. This should be included when constructing sequencing libraries
-with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where a barcode sequence
+begins. In sequencing libraries, barcodes—short DNA sequences used to tag
+individual cells or molecules—are often arranged in a pattern where each barcode
+is separated by a constant sequence of known length. These constant sequences
+create predictable spacing between barcodes, known as offsets. For example, if
+barcodes are 8 base pairs (bp) long and separated by 30 bp constant regions, the
+barcodes might start at positions 0, 38, and 76 within the read. If the source
+material is not barcoded, this field should be marked as "Not applicable".
+Example: 0,38,76</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the cell or capture spot barcode. This
-should be included when constructing sequencing libraries with a non-commercial
-kit. This field is required if the source material is barcoded. This field is
-used to determine which analysis pipeline to run.</t>
+        <t>(Required) The sequencing read file contains the cell or capture spot barcode
+sequences. This information is essential when constructing sequencing libraries
+with a non-commercial kit, as it ensures that barcodes are correctly extracted
+during data processing. If the source material is not barcoded, this field
+should be marked as "Not applicable". Example: Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Length of the cell or capture spot barcode in base pairs. Cell and
-capture spot barcodes are, for example, 3 x 8 bp sequences that are spaced by
-constant sequences, the offsets. This should be included when constructing
-sequencing libraries with a non-commercial kit. This field is required if the
-source material is barcoded.  This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of each cell or capture spot barcode in base pairs (bp).
+If the source material is not barcoded, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Position in the read at which the UMI barcode starts. This should be
-included when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where the Unique Molecular
+Identifier (UMI) sequence begins. UMIs are short, random nucleotide sequences
+added to DNA or RNA fragments during library preparation to uniquely tag each
+original molecule. If no UMI is used, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the UMI barcode. This should be included
-when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) Specifies which sequencing read file contains the Unique Molecular
+Identifier (UMI) barcode. If no UMI is used, enter "Not applicable". Example:
+Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) Length of the umi barcode in base pairs. This should be included when
-constructing sequencing libraries with a non-commercial kit. This field is
-required if UMI are present. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of the Unique Molecular Identifier (UMI) in base pairs
+(bp). If no UMI is used, enter "Not applicable". Example: 8</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) This is the entity from which the analyte is being captured. For
-example, for bulk sequencing this would be "tissue", while it would be "single
-cell" for single cell sequencing. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The entity from which the analyte is captured. For example, in bulk
+sequencing, the source entity would be "tissue" while in single-cell sequencing,
+it would be "single cell". Example: single cell</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>How many cells or nuclei were input to the assay? This is typically not
-available for preparations working with bulk tissue.</t>
+        <t>The number of cells or nuclei that were input into the assay. This information
+is typically not available for assays performed on bulk tissue preparations, and
+therefore this field may be left blank. Example: 1000</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The amount of RNA or DNA input to the assay, typically measured by a Qubit,
-BioAnalyzer, or TapeStation. In most single cell/nuclei assays, this value isn't
-available.</t>
+        <t>The amount of RNA or DNA input into the assay, typically measured using
+instruments such as a Qubit, BioAnalyzer, or TapeStation. In most single-cell or
+single-nucleus assays, this value is usually not available, and therfore this
+field may be left blank. Example: 500</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>Units of amount of entity input to assay value</t>
+        <t>The unit of measurement used to specify the amount of input analyte value. If no
+input amount, this field may be left blank. Example: ng</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) 5’ and/or 3’ read adapter sequences used as part of the library
-preparation protocol to render the library compatible with the sequencing
-protocol and instrumentation. This should be provided as comma-separated list of
-key:value pairs (adapter name:sequence).</t>
+        <t>The 5' and/or 3' adapter sequences used during library preparation to make the
+library compatible with the sequencing protocol and instrumentation. Adapter
+sequences should be provided as a comma-separated list of key-value pairs in the
+format: "adapter name: sequence". Example: Nextera Read 1: CTGTCTCTTATACACATCT</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) Average size of sequencing library fragments estimated via gel
-electrophoresis or bioanalyzer/tapestation. Numeric value in base pairs (bp).</t>
+        <t>The average size of sequencing library fragments, measured in base pairs (bp),
+as estimated by gel electrophoresis, BioAnalyzer, or TapeStation. Example: 200</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>The amount of cDNA, after amplification, that was used for library construction.</t>
+        <t>The amount of cDNA, after amplification, that was used for library construction.
+Example: 60</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>unit of library input amount value</t>
+        <t>The unit of measurement used to specify the library input amount value. Example:
+ng</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>Total amount (eg. nanograms) of library after the clean-up step of final pcr
-amplification step. Answer the question: What is the Qubit measured
-concentration (ng/ul) times the elution volume (ul) after the final clean-up
-step?</t>
+        <t>The total amount of library following the clean-up step after the final PCR
+amplification. To calculate, multiply the Qubit-measured concentration (ng/µl)
+by the elution volume (µl) obtained after the final clean-up. Example: 125</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>Units of library final yield.</t>
+        <t>The unit of measurement used to specify the library output amount value.
+Example: ng</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>(Required) The concentration value of the pooled library samples submitted for
-sequencing.</t>
+        <t>(Required) The concentration of the pooled library submitted for sequencing.
+Example: 2.5</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
@@ -272,99 +284,113 @@
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>(Required) Whether the library was generated for single-end or paired end
-sequencing</t>
+        <t>(Required) Indicates whether the sequencing library was prepared for single-end
+or paired-end sequencing. This information determines how reads are generated
+and aligned during data processing. Example: single-end</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>(Required) Reagent kit used for library preparation</t>
+        <t>(Required) The reagent kit used to construct the sequencing library, including
+both the kit name and, if available, version and product number. If the library
+was prepared using a custom protocol, enter “Custom”. Example: 10X Genomics;
+Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t>(Required) Indexes are needed for multiplexing sequencing libraries for
-simultaneous sequencing (pooling) and proper attachment to the Illumina
-flowcell. Each indexing kit would have a number of compatible sequences ("sample
-indexing sets") that are used to label some number of samples (the number of
-sets depend on the kit).</t>
+        <t>(Required) The reagent kit used to add index sequences to samples. Indexes
+enable multiplexing, allowing multiple libraries to be pooled and sequenced
+together on the same Illumina flow cell. Each indexing kit includes a set of
+compatible index sequences (often called "indexing sets") used to uniquely label
+a specific number of samples, depending on the kit’s design. If the library was
+prepared using a custom protocol, enter “Custom”. If no indexing was performed,
+enter "Not applicable". Example: 10X Genomics; Dual Index Kit TS, Set A; PN
+1000251</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="1">
       <text>
-        <t>The specific sequencing barcode index set used, selected from the sample
-indexing kit. Example: For 10X this might be "SI-GA-A1", for Nextera "N505 -
-CTCCTTAC"</t>
+        <t>The specific sequencing barcode index set used, chosen from the sample indexing
+kit. For example, in the case of 10x, this might be "SI-GA-A1", whereas for
+Nextera, it could be "N505 - CTCCTTAC". Example: SI-GA-A1</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="1">
       <text>
-        <t>(Required) Is the sequencing reaction run in replicate, "Yes" or "No". If "Yes",
-FASTQ files in dataset need to be merged.</t>
+        <t>(Required) Indicates whether the sequencing reaction was run in replicate. If
+"Yes," the corresponding FASTQ files in the dataset should be merged for
+analysis. Example: Yes</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="1">
       <text>
-        <t>Number of cells, nuclei or capture spots expected to be captured by the assay.
-For Visium this is the total number of spots covered by tissue, within the
-capture area.</t>
+        <t>The number of cells, nuclei, or capture spots expected to be captured by the
+assay. Example: 14336</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="1">
       <text>
-        <t>(Required) Reagent kit used for sequencing</t>
+        <t>(Required) The reagent kit used to perform the sequencing run, including the
+platform, kit name, version, and product number when available. If the reagent
+kit was prepared using a custom protocol, enter “Custom”. Example: Illumina;
+NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="1">
       <text>
-        <t>(Required) Number of sequencing cycles in each round of sequencing (i.e., Read1,
-i7 index, i5 index, and Read2). This is reported as a comma-delimited list.
-Example: For 10X snATAC-seq (R1,Index,R2,R3) this might be: 50,8,16,50. For
-SNARE-seq2 this might be: 75,94,8,75</t>
+        <t>(Required) The number of sequencing cycles for each read and index in the
+sequencing run, typically reported as a comma-separated list in the order: Read
+1, i7 index, i5 index, and Read 2. Example: 50,8,16,50</t>
       </text>
     </comment>
     <comment ref="AO1" authorId="1">
       <text>
-        <t>The ID for the sequencing run. This could, for example, be the chip ID and
-should allow users the ability to determine which samples were processed
-together in a sequencing run. It is recommended that data providers prefix the
-ID with the center name, to prevent values overlapping across centers.</t>
+        <t>A lab-assigned identifier for the sequencing run, such as a chip ID, that
+enables users to determine which samples were processed together. To avoid ID
+conflicts across institutions, it is recommended to prefix the ID with the name
+of the sequencing center. Example: Broad_Chip1234</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="1">
       <text>
-        <t>A lab-generated ID to identify which cells were captured at the same time. This
-would, for example, be an ID to denote which datasets were derived from a single
-10X Genomics Chromium Controller run. In the case of the 10X Controller this
-could be the chip ID and would allow users the ability to determine which
-samples were processed together in a Chromium controller. It is recommended that
-data providers prefix the ID with the center name, to prevent values overlapping
-across centers.</t>
+        <t>A lab-assigned identifier used to indicate which cells or nuclei were captured
+together in the same run. For example, in a 10X Genomics Chromium Controller
+workflow, this could be the chip ID used to trace datasets derived from a single
+capture event. This ID helps users identify samples processed together on the
+same device. To avoid conflicts across institutions, it is recommended to prefix
+the ID with the name of the sequencing center. Example: Broad_Batch1234</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="1">
       <text>
-        <t>The reagent kit used with the preparation instrument.</t>
+        <t>The reagent kit used in conjunction with the preparation instrument for sample
+processing (e.g., staining or labeling). If the reagent kit was prepared using a
+custom protocol, enter “Custom”. Example: 10X Genomics; Chromium Next GEM Chip G
+Single Cell Kit, 48 rxns; PN 1000120</t>
       </text>
     </comment>
     <comment ref="AT1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -373,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="660">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -399,34 +425,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -435,36 +599,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -495,16 +629,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -513,24 +641,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -561,18 +677,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -585,12 +689,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -603,34 +701,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -768,6 +848,18 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -882,12 +974,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -921,6 +1025,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1029,6 +1139,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1107,6 +1223,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1143,6 +1265,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1233,6 +1361,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1257,6 +1388,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1269,6 +1412,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1293,6 +1442,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1413,12 +1568,12 @@
     <t>8,6</t>
   </si>
   <si>
-    <t>14-17,14,14</t>
-  </si>
-  <si>
     <t>umi_offset</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1524,6 +1679,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0010050</t>
   </si>
   <si>
+    <t>pg/ul</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000438</t>
+  </si>
+  <si>
     <t>nM</t>
   </si>
   <si>
@@ -1662,6 +1823,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000439</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -1704,6 +1871,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000460</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1737,6 +1910,12 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit, 96 rxns; PN 120262</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000461</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
   </si>
   <si>
@@ -1839,6 +2018,12 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (100 Cycle); PN 20125967</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000463</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
   </si>
   <si>
@@ -1863,6 +2048,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (200 Cycle); PN 20125968</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000464</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
@@ -1959,6 +2150,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (300 Cycles); PN 20028400</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000459</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
@@ -2115,6 +2312,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
@@ -2169,7 +2372,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:18:02-07:00</t>
+    <t>2025-10-21T12:15:27-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2357,144 +2560,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>348</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>349</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>373</v>
+        <v>416</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>374</v>
+        <v>417</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>390</v>
+        <v>435</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>484</v>
+        <v>535</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>575</v>
+        <v>632</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>592</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>593</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="35">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2503,10 +2706,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2529,10 +2732,10 @@
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_size'!$A$1:$A$7</formula1>
+      <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$3</formula1>
+      <formula1>'umi_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2577,16 +2780,16 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AF2:AF1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_concentration_unit'!$A$1:$A$2</formula1>
+      <formula1>'library_concentration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AG2:AG1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'library_layout'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2596,7 +2799,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2605,7 +2808,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2624,26 +2827,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2856,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2661,37 +2864,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>341</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2899,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2709,17 +2907,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>342</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2737,26 +2940,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>338</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>339</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2774,27 +2977,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>351</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>352</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2812,42 +3015,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>359</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2865,18 +3068,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>368</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2894,18 +3097,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2923,18 +3126,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -2944,7 +3147,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2952,18 +3155,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2973,7 +3184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3305,6 +3516,78 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3322,18 +3605,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>387</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>388</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>389</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3343,7 +3626,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3351,250 +3634,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>436</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>398</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>400</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>402</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>404</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>406</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>410</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>412</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>414</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>416</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>420</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>422</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>423</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>424</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>425</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>426</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>427</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>428</v>
+        <v>473</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>429</v>
+        <v>474</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>430</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>431</v>
+        <v>476</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>434</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>436</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>438</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>440</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>442</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>444</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>446</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>448</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>450</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>452</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3903,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3612,138 +3911,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>455</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>456</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>457</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>459</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>460</v>
+        <v>509</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>461</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>462</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>463</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>464</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>465</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>466</v>
+        <v>515</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>467</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>469</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>440</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>473</v>
+        <v>522</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>474</v>
+        <v>523</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>475</v>
+        <v>524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>477</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>479</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>481</v>
+        <v>530</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>483</v>
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -3761,12 +4068,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +4083,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3784,210 +4091,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>489</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>490</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>491</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>493</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>494</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>495</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>497</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>499</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>500</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>501</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>502</v>
+        <v>553</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>503</v>
+        <v>554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>504</v>
+        <v>555</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>505</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>507</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>508</v>
+        <v>559</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>509</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>510</v>
+        <v>561</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>511</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>512</v>
+        <v>563</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>513</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>515</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>516</v>
+        <v>567</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>517</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>439</v>
+        <v>569</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>440</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>518</v>
+        <v>571</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>519</v>
+        <v>572</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>521</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>523</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>525</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>527</v>
+        <v>578</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>529</v>
+        <v>580</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>530</v>
+        <v>581</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>531</v>
+        <v>582</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>532</v>
+        <v>583</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>533</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>535</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>537</v>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>589</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -4005,74 +4336,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>543</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>545</v>
+        <v>602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>547</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -4090,146 +4421,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>549</v>
+        <v>606</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>550</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>551</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>552</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>553</v>
+        <v>610</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>554</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>555</v>
+        <v>612</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>556</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>557</v>
+        <v>614</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>558</v>
+        <v>615</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>560</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>561</v>
+        <v>618</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>562</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>563</v>
+        <v>620</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>564</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>565</v>
+        <v>622</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>566</v>
+        <v>623</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>568</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>569</v>
+        <v>626</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>570</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>571</v>
+        <v>628</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>572</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>573</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>574</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -4239,7 +4570,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4247,90 +4578,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>576</v>
+        <v>633</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>577</v>
+        <v>634</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>579</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>448</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>435</v>
+        <v>637</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>436</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>581</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>582</v>
+        <v>639</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>583</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>584</v>
+        <v>641</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>585</v>
+        <v>642</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>586</v>
+        <v>643</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>587</v>
+        <v>644</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>439</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>440</v>
+        <v>646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>588</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>589</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>590</v>
+        <v>647</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>591</v>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>649</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -4354,30 +4693,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>594</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>595</v>
+        <v>654</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>597</v>
+        <v>656</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>599</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>596</v>
+        <v>655</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>598</v>
+        <v>657</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>600</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -4395,130 +4734,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4536,12 +4875,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4890,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4559,210 +4898,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4772,7 +5143,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4780,546 +5151,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5337,42 +5780,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5390,26 +5833,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5427,47 +5870,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>329</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>333</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>334</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>182</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="674">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -467,6 +467,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -722,18 +728,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1751,6 +1757,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000471</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
   </si>
   <si>
@@ -1823,6 +1835,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000469</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
   </si>
   <si>
@@ -1835,6 +1853,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000467</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
   </si>
   <si>
@@ -1901,6 +1925,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000466</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -1964,6 +1994,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000468</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
   </si>
   <si>
@@ -2300,42 +2336,54 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000470</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000379</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
@@ -2348,12 +2396,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
-  </si>
-  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -2372,7 +2414,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-21T12:15:27-07:00</t>
+    <t>2025-11-19T14:41:15-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2560,144 +2602,144 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>651</v>
+        <v>665</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="35">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2786,10 +2828,10 @@
       <formula1>'library_layout'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AH2:AH1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$37</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AI2:AI1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2802,13 +2844,13 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AQ2:AQ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AR2:AR1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$13</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2827,26 +2869,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2864,32 +2906,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2907,22 +2949,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -2940,26 +2982,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -2977,27 +3019,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3015,42 +3057,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3068,18 +3110,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3097,18 +3139,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3126,18 +3168,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3155,26 +3197,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3588,6 +3630,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3605,18 +3655,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3626,7 +3676,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3634,266 +3684,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3985,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3911,146 +3993,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>518</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>520</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>522</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>534</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4068,12 +4158,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4091,234 +4181,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>542</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>544</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>546</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>576</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>578</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>580</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>584</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>586</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>588</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>590</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>592</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>594</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4328,7 +4418,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4336,74 +4426,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>603</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>604</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +4519,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4421,146 +4527,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>607</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>609</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>610</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>611</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>631</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -4570,7 +4684,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4578,98 +4692,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>634</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>636</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>638</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>482</v>
+        <v>651</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>483</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>641</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>642</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>644</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>646</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>648</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>650</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -4693,30 +4815,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>658</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>659</v>
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -4734,130 +4856,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4875,12 +4997,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4898,242 +5020,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5151,618 +5273,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5780,42 +5902,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5833,26 +5955,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5870,47 +5992,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/music/latest/music.xlsx
+++ b/music/latest/music.xlsx
@@ -399,7 +399,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="676">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -728,6 +728,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -2414,7 +2420,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:41:15-08:00</t>
+    <t>2025-11-20T09:42:17-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2605,127 +2611,127 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2">
@@ -2733,7 +2739,7 @@
         <v>76</v>
       </c>
       <c r="AT2" t="s" s="47">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -2742,7 +2748,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2869,26 +2875,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -2906,32 +2912,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2949,22 +2955,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2982,26 +2988,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3019,27 +3025,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3057,42 +3063,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3110,18 +3116,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3139,18 +3145,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3168,18 +3174,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3197,26 +3203,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3655,18 +3661,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3684,298 +3690,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -3993,154 +3999,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4158,12 +4164,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4181,234 +4187,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4426,90 +4432,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4527,154 +4533,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4692,106 +4698,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -4815,16 +4821,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2">
@@ -4832,13 +4838,13 @@
         <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -4848,7 +4854,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4980,6 +4986,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4997,12 +5011,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5020,242 +5034,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5273,474 +5287,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -5748,143 +5762,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -5902,42 +5916,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5955,26 +5969,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5992,47 +6006,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
